--- a/hamming_help.xlsx
+++ b/hamming_help.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/prog/ARM/Org2/HW6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0659720-F779-1E4F-A991-C5B632FEE267}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FEB2FC-55BB-6B4A-9DD6-48DEFBB41F99}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64000" yWindow="-12960" windowWidth="38400" windowHeight="21600" xr2:uid="{076A4292-BA88-F44D-86DF-B2C1846B3251}"/>
+    <workbookView xWindow="29120" yWindow="-8280" windowWidth="25600" windowHeight="14320" xr2:uid="{076A4292-BA88-F44D-86DF-B2C1846B3251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E52340-1C6C-F84F-A70A-F99A621D3254}">
-  <dimension ref="A1:AH15"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="352" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="229" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,6 +1219,273 @@
       <c r="AF15" s="24"/>
       <c r="AG15" s="23"/>
     </row>
+    <row r="16" spans="9:34" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="L17" s="13">
+        <v>1</v>
+      </c>
+      <c r="M17" s="14">
+        <v>1</v>
+      </c>
+      <c r="N17" s="15">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0</v>
+      </c>
+      <c r="P17" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>1</v>
+      </c>
+      <c r="R17" s="15">
+        <v>0</v>
+      </c>
+      <c r="S17" s="15">
+        <v>0</v>
+      </c>
+      <c r="T17" s="15">
+        <v>0</v>
+      </c>
+      <c r="U17" s="14">
+        <v>1</v>
+      </c>
+      <c r="V17" s="15">
+        <v>1</v>
+      </c>
+      <c r="W17" s="15">
+        <v>0</v>
+      </c>
+      <c r="X17" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="17">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="L18" s="19">
+        <v>1</v>
+      </c>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20">
+        <v>0</v>
+      </c>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="20">
+        <v>0</v>
+      </c>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20">
+        <v>0</v>
+      </c>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20">
+        <v>1</v>
+      </c>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="20">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="20"/>
+    </row>
+    <row r="19" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23">
+        <v>0</v>
+      </c>
+      <c r="O19" s="23">
+        <v>0</v>
+      </c>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="23">
+        <v>0</v>
+      </c>
+      <c r="S19" s="23">
+        <v>0</v>
+      </c>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23">
+        <v>1</v>
+      </c>
+      <c r="W19" s="23">
+        <v>0</v>
+      </c>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="27">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="23"/>
+    </row>
+    <row r="20" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="R20" s="30">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="23">
+        <v>0</v>
+      </c>
+      <c r="S21" s="23">
+        <v>0</v>
+      </c>
+      <c r="T21" s="23">
+        <v>0</v>
+      </c>
+      <c r="U21" s="23">
+        <v>1</v>
+      </c>
+      <c r="V21" s="23">
+        <v>1</v>
+      </c>
+      <c r="W21" s="23">
+        <v>0</v>
+      </c>
+      <c r="X21" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="23"/>
+    </row>
+    <row r="22" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="L22" s="22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="23">
+        <v>1</v>
+      </c>
+      <c r="N22" s="23">
+        <v>0</v>
+      </c>
+      <c r="O22" s="23">
+        <v>0</v>
+      </c>
+      <c r="P22" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>1</v>
+      </c>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="23"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
